--- a/public/leads_format_sheet.xlsx
+++ b/public/leads_format_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PROJECTS\LARAVEL\CRM_roles_permision\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>SSN</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t xml:space="preserve">DESCRIPTION </t>
+  </si>
+  <si>
+    <t>SERVICE_NAME</t>
   </si>
 </sst>
 </file>
@@ -118,11 +121,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -342,29 +348,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" customWidth="1"/>
-    <col min="14" max="14" width="36.85546875" customWidth="1"/>
+    <col min="3" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="22.5703125" customWidth="1"/>
+    <col min="15" max="15" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -374,44 +380,54 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="C2" s="3"/>
-      <c r="N2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/leads_format_sheet.xlsx
+++ b/public/leads_format_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PROJECTS\LARAVEL\CRM_roles_permision\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>SSN</t>
   </si>
@@ -54,9 +54,6 @@
     <t>INDUSTRY</t>
   </si>
   <si>
-    <t>BUSINESS_TITLE</t>
-  </si>
-  <si>
     <t>POINT_OF_CONTACT</t>
   </si>
   <si>
@@ -64,6 +61,18 @@
   </si>
   <si>
     <t>SERVICE_NAME</t>
+  </si>
+  <si>
+    <t>FAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUSINESS_TITLE</t>
+  </si>
+  <si>
+    <t>CONTACT_NUMBER</t>
+  </si>
+  <si>
+    <t>CONTACT_EMAIL</t>
   </si>
 </sst>
 </file>
@@ -348,10 +357,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -365,12 +374,12 @@
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="22.140625" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" customWidth="1"/>
-    <col min="15" max="15" width="36.85546875" customWidth="1"/>
+    <col min="14" max="14" width="26" customWidth="1"/>
+    <col min="15" max="17" width="22.5703125" customWidth="1"/>
+    <col min="18" max="18" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -381,7 +390,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -408,25 +417,34 @@
         <v>1</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="O2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J15" s="4"/>
     </row>
   </sheetData>
